--- a/internal data/Screen_BK_plate_2.xlsx
+++ b/internal data/Screen_BK_plate_2.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuclac-my.sharepoint.com/personal/zcbtkov_ucl_ac_uk/Documents/MSci Bahler lab/S.-Pombe-biofilm/internal data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/91277b806043e344/MSci Bahler lab/S.-Pombe-MLPs/internal data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="148" documentId="8_{4614E8E2-C62C-3041-A89A-E4713A2F33B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{951E755D-19DE-8048-82B3-E023153C2B2E}"/>
+  <xr:revisionPtr revIDLastSave="150" documentId="8_{4614E8E2-C62C-3041-A89A-E4713A2F33B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FFBF50C8-8FBC-B544-A526-8B9311F29AD6}"/>
   <bookViews>
-    <workbookView xWindow="800" yWindow="780" windowWidth="28040" windowHeight="17240" xr2:uid="{9970AC76-FBAB-9041-908A-11D22A08AD4B}"/>
+    <workbookView xWindow="800" yWindow="740" windowWidth="28040" windowHeight="17220" xr2:uid="{9970AC76-FBAB-9041-908A-11D22A08AD4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -406,10 +407,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -709,10 +706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A553765-BC02-0D42-9224-C3C88494BB76}">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -720,7 +717,7 @@
     <col min="1" max="12" width="9.83203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="62" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -758,7 +755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" ht="62" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
@@ -796,7 +793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" ht="62" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -833,12 +830,8 @@
       <c r="L3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="18"/>
-      <c r="O3" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="62" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:12" s="1" customFormat="1" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -875,12 +868,8 @@
       <c r="L4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="N4" s="16"/>
-      <c r="O4" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="1" customFormat="1" ht="62" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:12" s="1" customFormat="1" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>1</v>
       </c>
@@ -917,12 +906,8 @@
       <c r="L5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="N5" s="11"/>
-      <c r="O5" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="1" customFormat="1" ht="62" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:12" s="1" customFormat="1" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>2</v>
       </c>
@@ -959,12 +944,8 @@
       <c r="L6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="N6" s="13"/>
-      <c r="O6" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="1" customFormat="1" ht="62" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:12" s="1" customFormat="1" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -1002,7 +983,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="1" customFormat="1" ht="62" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" s="1" customFormat="1" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>2</v>
       </c>
@@ -1040,7 +1021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="3"/>
     </row>
   </sheetData>
@@ -1048,4 +1029,75 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF62CD5-48CA-B345-80A7-F7BEECD317CF}">
+  <dimension ref="K1:N8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K3" s="1"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K4" s="1"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K5" s="1"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K6" s="1"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>